--- a/해커톤/soviet_작업본.xlsx
+++ b/해커톤/soviet_작업본.xlsx
@@ -5,22 +5,32 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GS43VR\Documents\Coala_study\해커톤\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlska\Documents\Coala_study\해커톤\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D050315-FCCF-44F5-BBAF-85A23844C8E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A91280A-5E9D-48C8-83C3-A48AE3E5ECCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2415" windowWidth="28800" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="137">
   <si>
     <t>thumbnail</t>
   </si>
@@ -428,6 +438,10 @@
   </si>
   <si>
     <t>1:06</t>
+  </si>
+  <si>
+    <t>term</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -476,7 +490,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -499,6 +513,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -507,13 +532,16 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -853,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="K2" sqref="K2:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -864,7 +892,7 @@
     <col min="8" max="8" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -889,8 +917,11 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -918,8 +949,11 @@
       <c r="I2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -947,8 +981,11 @@
       <c r="I3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -976,8 +1013,11 @@
       <c r="I4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1005,8 +1045,11 @@
       <c r="I5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1034,8 +1077,11 @@
       <c r="I6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1063,965 +1109,1070 @@
       <c r="I7" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E8">
-        <v>867617</v>
+        <v>761152</v>
       </c>
       <c r="F8">
-        <v>31000</v>
+        <v>17000</v>
       </c>
       <c r="G8">
-        <v>430</v>
+        <v>166</v>
       </c>
       <c r="H8" s="3">
-        <v>43471</v>
+        <v>43798</v>
       </c>
       <c r="I8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E9">
-        <v>761152</v>
+        <v>668095</v>
       </c>
       <c r="F9">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="G9">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="H9" s="3">
-        <v>43798</v>
+        <v>43795</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
         <v>90</v>
       </c>
       <c r="E10">
-        <v>668095</v>
+        <v>866957</v>
       </c>
       <c r="F10">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="G10">
-        <v>156</v>
+        <v>368</v>
       </c>
       <c r="H10" s="3">
-        <v>43795</v>
+        <v>43791</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E11">
-        <v>866957</v>
+        <v>658346</v>
       </c>
       <c r="F11">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="G11">
-        <v>368</v>
+        <v>250</v>
       </c>
       <c r="H11" s="3">
-        <v>43791</v>
+        <v>43786</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
         <v>87</v>
       </c>
       <c r="E12">
-        <v>658346</v>
+        <v>1796245</v>
       </c>
       <c r="F12">
+        <v>44000</v>
+      </c>
+      <c r="G12">
+        <v>442</v>
+      </c>
+      <c r="H12" s="3">
+        <v>43782</v>
+      </c>
+      <c r="I12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13">
+        <v>925631</v>
+      </c>
+      <c r="F13">
+        <v>28000</v>
+      </c>
+      <c r="G13">
+        <v>385</v>
+      </c>
+      <c r="H13" s="3">
+        <v>43779</v>
+      </c>
+      <c r="I13" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14">
+        <v>1114700</v>
+      </c>
+      <c r="F14">
+        <v>26000</v>
+      </c>
+      <c r="G14">
+        <v>314</v>
+      </c>
+      <c r="H14" s="3">
+        <v>43767</v>
+      </c>
+      <c r="I14" t="s">
+        <v>114</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15">
+        <v>1387306</v>
+      </c>
+      <c r="F15">
+        <v>30000</v>
+      </c>
+      <c r="G15">
+        <v>448</v>
+      </c>
+      <c r="H15" s="3">
+        <v>43764</v>
+      </c>
+      <c r="I15" t="s">
+        <v>115</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16">
+        <v>646330</v>
+      </c>
+      <c r="F16">
         <v>15000</v>
       </c>
-      <c r="G12">
-        <v>250</v>
-      </c>
-      <c r="H12" s="3">
-        <v>43786</v>
-      </c>
-      <c r="I12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="G16">
+        <v>235</v>
+      </c>
+      <c r="H16" s="3">
+        <v>43757</v>
+      </c>
+      <c r="I16" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17">
+        <v>906566</v>
+      </c>
+      <c r="F17">
+        <v>19000</v>
+      </c>
+      <c r="G17">
+        <v>324</v>
+      </c>
+      <c r="H17" s="3">
+        <v>43752</v>
+      </c>
+      <c r="I17" t="s">
+        <v>117</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13">
-        <v>1796245</v>
-      </c>
-      <c r="F13">
-        <v>44000</v>
-      </c>
-      <c r="G13">
-        <v>442</v>
-      </c>
-      <c r="H13" s="3">
-        <v>43782</v>
-      </c>
-      <c r="I13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18">
+        <v>1720549</v>
+      </c>
+      <c r="F18">
+        <v>24000</v>
+      </c>
+      <c r="G18">
+        <v>471</v>
+      </c>
+      <c r="H18" s="3">
+        <v>43749</v>
+      </c>
+      <c r="I18" t="s">
+        <v>118</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>22</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19">
+        <v>512833</v>
+      </c>
+      <c r="F19">
+        <v>12000</v>
+      </c>
+      <c r="G19">
+        <v>161</v>
+      </c>
+      <c r="H19" s="3">
+        <v>43737</v>
+      </c>
+      <c r="I19" t="s">
+        <v>111</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
         <v>89</v>
       </c>
-      <c r="E14">
-        <v>925631</v>
-      </c>
-      <c r="F14">
-        <v>28000</v>
-      </c>
-      <c r="G14">
-        <v>385</v>
-      </c>
-      <c r="H14" s="3">
-        <v>43779</v>
-      </c>
-      <c r="I14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E20">
+        <v>2540005</v>
+      </c>
+      <c r="F20">
+        <v>49000</v>
+      </c>
+      <c r="G20">
+        <v>1900</v>
+      </c>
+      <c r="H20" s="3">
+        <v>43734</v>
+      </c>
+      <c r="I20" t="s">
+        <v>121</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>24</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" t="s">
         <v>88</v>
       </c>
-      <c r="E15">
-        <v>1581049</v>
-      </c>
-      <c r="F15">
-        <v>37000</v>
-      </c>
-      <c r="G15">
-        <v>460</v>
-      </c>
-      <c r="H15" s="3">
-        <v>43470</v>
-      </c>
-      <c r="I15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16">
-        <v>816296</v>
-      </c>
-      <c r="F16">
-        <v>19000</v>
-      </c>
-      <c r="G16">
-        <v>245</v>
-      </c>
-      <c r="H16" s="3">
-        <v>43466</v>
-      </c>
-      <c r="I16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17">
-        <v>1114700</v>
-      </c>
-      <c r="F17">
-        <v>26000</v>
-      </c>
-      <c r="G17">
-        <v>314</v>
-      </c>
-      <c r="H17" s="3">
-        <v>43767</v>
-      </c>
-      <c r="I17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18">
-        <v>1387306</v>
-      </c>
-      <c r="F18">
+      <c r="E21">
+        <v>1997852</v>
+      </c>
+      <c r="F21">
         <v>30000</v>
       </c>
-      <c r="G18">
-        <v>448</v>
-      </c>
-      <c r="H18" s="3">
-        <v>43764</v>
-      </c>
-      <c r="I18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="G21">
+        <v>803</v>
+      </c>
+      <c r="H21" s="3">
+        <v>43730</v>
+      </c>
+      <c r="I21" t="s">
+        <v>122</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19">
-        <v>646330</v>
-      </c>
-      <c r="F19">
-        <v>15000</v>
-      </c>
-      <c r="G19">
-        <v>235</v>
-      </c>
-      <c r="H19" s="3">
-        <v>43757</v>
-      </c>
-      <c r="I19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20">
-        <v>906566</v>
-      </c>
-      <c r="F20">
-        <v>19000</v>
-      </c>
-      <c r="G20">
-        <v>324</v>
-      </c>
-      <c r="H20" s="3">
-        <v>43752</v>
-      </c>
-      <c r="I20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21">
-        <v>1720549</v>
-      </c>
-      <c r="F21">
-        <v>24000</v>
-      </c>
-      <c r="G21">
-        <v>471</v>
-      </c>
-      <c r="H21" s="3">
-        <v>43749</v>
-      </c>
-      <c r="I21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
       <c r="B22" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E22">
-        <v>1614849</v>
+        <v>1506331</v>
       </c>
       <c r="F22">
         <v>28000</v>
       </c>
       <c r="G22">
-        <v>722</v>
+        <v>495</v>
       </c>
       <c r="H22" s="3">
-        <v>43472</v>
+        <v>43727</v>
       </c>
       <c r="I22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
         <v>92</v>
       </c>
       <c r="E23">
-        <v>2119022</v>
+        <v>1145784</v>
       </c>
       <c r="F23">
-        <v>43000</v>
+        <v>27000</v>
       </c>
       <c r="G23">
-        <v>1300</v>
+        <v>387</v>
       </c>
       <c r="H23" s="3">
-        <v>43469</v>
+        <v>43723</v>
       </c>
       <c r="I23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E24">
-        <v>512833</v>
+        <v>1138656</v>
       </c>
       <c r="F24">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="G24">
-        <v>161</v>
+        <v>463</v>
       </c>
       <c r="H24" s="3">
-        <v>43737</v>
+        <v>43719</v>
       </c>
       <c r="I24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E25">
-        <v>2540005</v>
+        <v>777840</v>
       </c>
       <c r="F25">
-        <v>49000</v>
+        <v>19000</v>
       </c>
       <c r="G25">
-        <v>1900</v>
+        <v>306</v>
       </c>
       <c r="H25" s="3">
-        <v>43734</v>
+        <v>43716</v>
       </c>
       <c r="I25" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
         <v>88</v>
       </c>
       <c r="E26">
-        <v>1997852</v>
+        <v>1015369</v>
       </c>
       <c r="F26">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="G26">
-        <v>803</v>
+        <v>361</v>
       </c>
       <c r="H26" s="3">
-        <v>43730</v>
+        <v>43712</v>
       </c>
       <c r="I26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="J26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E27">
-        <v>1506331</v>
+        <v>1272030</v>
       </c>
       <c r="F27">
         <v>28000</v>
       </c>
       <c r="G27">
-        <v>495</v>
+        <v>414</v>
       </c>
       <c r="H27" s="3">
-        <v>43727</v>
+        <v>43709</v>
       </c>
       <c r="I27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E28">
-        <v>1145784</v>
+        <v>1138820</v>
       </c>
       <c r="F28">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="G28">
-        <v>387</v>
+        <v>433</v>
       </c>
       <c r="H28" s="3">
-        <v>43723</v>
+        <v>43704</v>
       </c>
       <c r="I28" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
         <v>94</v>
       </c>
       <c r="E29">
-        <v>1138656</v>
+        <v>482985</v>
       </c>
       <c r="F29">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="G29">
-        <v>463</v>
+        <v>145</v>
       </c>
       <c r="H29" s="3">
-        <v>43719</v>
+        <v>43701</v>
       </c>
       <c r="I29" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
+        <v>33</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30">
+        <v>917280</v>
+      </c>
+      <c r="F30">
+        <v>31000</v>
+      </c>
+      <c r="G30">
+        <v>443</v>
+      </c>
+      <c r="H30" s="3">
+        <v>43698</v>
+      </c>
+      <c r="I30" t="s">
+        <v>130</v>
+      </c>
+      <c r="J30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>34</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31">
+        <v>1013383</v>
+      </c>
+      <c r="F31">
+        <v>49000</v>
+      </c>
+      <c r="G31">
+        <v>1000</v>
+      </c>
+      <c r="H31" s="3">
+        <v>43692</v>
+      </c>
+      <c r="I31" t="s">
+        <v>131</v>
+      </c>
+      <c r="J31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>35</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32">
+        <v>723086</v>
+      </c>
+      <c r="F32">
+        <v>21000</v>
+      </c>
+      <c r="G32">
+        <v>356</v>
+      </c>
+      <c r="H32" s="3">
+        <v>43690</v>
+      </c>
+      <c r="I32" t="s">
+        <v>132</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>36</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33">
+        <v>1004022</v>
+      </c>
+      <c r="F33">
+        <v>26000</v>
+      </c>
+      <c r="G33">
+        <v>427</v>
+      </c>
+      <c r="H33" s="3">
+        <v>43686</v>
+      </c>
+      <c r="I33" t="s">
+        <v>133</v>
+      </c>
+      <c r="J33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>37</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34">
+        <v>1206912</v>
+      </c>
+      <c r="F34">
+        <v>34000</v>
+      </c>
+      <c r="G34">
+        <v>433</v>
+      </c>
+      <c r="H34" s="3">
+        <v>43682</v>
+      </c>
+      <c r="I34" t="s">
+        <v>134</v>
+      </c>
+      <c r="J34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>38</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35">
+        <v>996920</v>
+      </c>
+      <c r="F35">
+        <v>23000</v>
+      </c>
+      <c r="G35">
+        <v>438</v>
+      </c>
+      <c r="H35" s="3">
+        <v>43677</v>
+      </c>
+      <c r="I35" t="s">
+        <v>135</v>
+      </c>
+      <c r="J35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>20</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30">
-        <v>777840</v>
-      </c>
-      <c r="F30">
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36">
+        <v>1614849</v>
+      </c>
+      <c r="F36">
+        <v>28000</v>
+      </c>
+      <c r="G36">
+        <v>722</v>
+      </c>
+      <c r="H36" s="3">
+        <v>43472</v>
+      </c>
+      <c r="I36" t="s">
+        <v>119</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>6</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37">
+        <v>867617</v>
+      </c>
+      <c r="F37">
+        <v>31000</v>
+      </c>
+      <c r="G37">
+        <v>430</v>
+      </c>
+      <c r="H37" s="3">
+        <v>43471</v>
+      </c>
+      <c r="I37" t="s">
+        <v>105</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>13</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38">
+        <v>1581049</v>
+      </c>
+      <c r="F38">
+        <v>37000</v>
+      </c>
+      <c r="G38">
+        <v>460</v>
+      </c>
+      <c r="H38" s="3">
+        <v>43470</v>
+      </c>
+      <c r="I38" t="s">
+        <v>112</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>21</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39">
+        <v>2119022</v>
+      </c>
+      <c r="F39">
+        <v>43000</v>
+      </c>
+      <c r="G39">
+        <v>1300</v>
+      </c>
+      <c r="H39" s="3">
+        <v>43469</v>
+      </c>
+      <c r="I39" t="s">
+        <v>120</v>
+      </c>
+      <c r="J39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>14</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40">
+        <v>816296</v>
+      </c>
+      <c r="F40">
         <v>19000</v>
       </c>
-      <c r="G30">
-        <v>306</v>
-      </c>
-      <c r="H30" s="3">
-        <v>43716</v>
-      </c>
-      <c r="I30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31">
-        <v>1015369</v>
-      </c>
-      <c r="F31">
-        <v>25000</v>
-      </c>
-      <c r="G31">
-        <v>361</v>
-      </c>
-      <c r="H31" s="3">
-        <v>43712</v>
-      </c>
-      <c r="I31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32">
-        <v>1272030</v>
-      </c>
-      <c r="F32">
-        <v>28000</v>
-      </c>
-      <c r="G32">
-        <v>414</v>
-      </c>
-      <c r="H32" s="3">
-        <v>43709</v>
-      </c>
-      <c r="I32" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33">
-        <v>1138820</v>
-      </c>
-      <c r="F33">
-        <v>30000</v>
-      </c>
-      <c r="G33">
-        <v>433</v>
-      </c>
-      <c r="H33" s="3">
-        <v>43704</v>
-      </c>
-      <c r="I33" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34">
-        <v>482985</v>
-      </c>
-      <c r="F34">
-        <v>17000</v>
-      </c>
-      <c r="G34">
-        <v>145</v>
-      </c>
-      <c r="H34" s="3">
-        <v>43701</v>
-      </c>
-      <c r="I34" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" t="s">
-        <v>88</v>
-      </c>
-      <c r="E35">
-        <v>917280</v>
-      </c>
-      <c r="F35">
-        <v>31000</v>
-      </c>
-      <c r="G35">
-        <v>443</v>
-      </c>
-      <c r="H35" s="3">
-        <v>43698</v>
-      </c>
-      <c r="I35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" t="s">
-        <v>81</v>
-      </c>
-      <c r="D36" t="s">
-        <v>97</v>
-      </c>
-      <c r="E36">
-        <v>1013383</v>
-      </c>
-      <c r="F36">
-        <v>49000</v>
-      </c>
-      <c r="G36">
-        <v>1000</v>
-      </c>
-      <c r="H36" s="3">
-        <v>43692</v>
-      </c>
-      <c r="I36" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37">
-        <v>723086</v>
-      </c>
-      <c r="F37">
-        <v>21000</v>
-      </c>
-      <c r="G37">
-        <v>356</v>
-      </c>
-      <c r="H37" s="3">
-        <v>43690</v>
-      </c>
-      <c r="I37" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" t="s">
-        <v>94</v>
-      </c>
-      <c r="E38">
-        <v>1004022</v>
-      </c>
-      <c r="F38">
-        <v>26000</v>
-      </c>
-      <c r="G38">
-        <v>427</v>
-      </c>
-      <c r="H38" s="3">
-        <v>43686</v>
-      </c>
-      <c r="I38" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" t="s">
-        <v>98</v>
-      </c>
-      <c r="E39">
-        <v>1206912</v>
-      </c>
-      <c r="F39">
-        <v>34000</v>
-      </c>
-      <c r="G39">
-        <v>433</v>
-      </c>
-      <c r="H39" s="3">
-        <v>43682</v>
-      </c>
-      <c r="I39" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" t="s">
-        <v>94</v>
-      </c>
-      <c r="E40">
-        <v>996920</v>
-      </c>
-      <c r="F40">
-        <v>23000</v>
-      </c>
       <c r="G40">
-        <v>438</v>
+        <v>245</v>
       </c>
       <c r="H40" s="3">
-        <v>43677</v>
+        <v>43466</v>
       </c>
       <c r="I40" t="s">
-        <v>135</v>
+        <v>113</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I40">
+    <sortCondition descending="1" ref="H1"/>
+  </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -2030,39 +2181,39 @@
     <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B37" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B38" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B40" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B14" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B15" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B16" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B17" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B18" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B36" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B39" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B19" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B20" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B21" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B22" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B23" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B24" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B25" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B26" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B27" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B28" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B29" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B30" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B31" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B32" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B33" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B34" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B35" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
